--- a/HDFC Calculator TestNG/src/com/hdfc/testng/excelfiles/TestData.xlsx
+++ b/HDFC Calculator TestNG/src/com/hdfc/testng/excelfiles/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANWESHA\Eclipse_Updated_WorkSpace\CodePractice\Revision\HDFC Calculator TestNG\src\com\hdfc\testng\excelfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANWESHA\git\HDFC_TestNGProject\HDFC Calculator TestNG\src\com\hdfc\testng\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Monthly Payout</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +357,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>